--- a/test.xlsx
+++ b/test.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{11134998-AB05-403D-B887-E781A85017A3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{66D2DC29-6F43-4549-8E6E-C15E8559C7D2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17304" windowHeight="11016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17328" windowHeight="13068" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -826,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{11134998-AB05-403D-B887-E781A85017A3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{7D5AE67E-C8DD-407E-B29A-570FBD883FBD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17304" windowHeight="11016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="17393" windowHeight="13725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="191029"/>
+  <oleSize ref="A28:H43"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="55">
   <si>
     <t>int</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -177,10 +177,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>matrix</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>e</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -234,6 +230,22 @@
   </si>
   <si>
     <t>하세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!matrix</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>a==3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -290,7 +302,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -342,6 +354,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,7 +464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -542,6 +560,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -824,15 +845,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -851,7 +872,7 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -860,7 +881,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -881,7 +902,7 @@
       </c>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -890,15 +911,15 @@
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A5" s="12"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A6" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A7" s="15">
         <v>3</v>
       </c>
@@ -906,7 +927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -915,7 +936,7 @@
       </c>
       <c r="C8" s="17"/>
     </row>
-    <row r="9" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="D9" s="12"/>
@@ -923,12 +944,12 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>10</v>
@@ -938,7 +959,7 @@
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A11" s="15">
         <v>3</v>
       </c>
@@ -953,7 +974,7 @@
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -962,7 +983,7 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A13" s="12" t="s">
         <v>4</v>
       </c>
@@ -977,7 +998,7 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A14" s="12" t="s">
         <v>5</v>
       </c>
@@ -992,7 +1013,7 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -1001,12 +1022,12 @@
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A16" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>13</v>
@@ -1016,7 +1037,7 @@
       </c>
       <c r="G16" s="12"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A17" s="19"/>
       <c r="B17" s="12" t="s">
         <v>6</v>
@@ -1029,21 +1050,31 @@
       </c>
       <c r="G17" s="12"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A18" s="19"/>
+      <c r="B18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G18" s="12"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.6">
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.6">
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A21" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>13</v>
@@ -1053,7 +1084,7 @@
       </c>
       <c r="G21" s="12"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A22" s="19"/>
       <c r="B22" s="12" t="s">
         <v>6</v>
@@ -1066,14 +1097,14 @@
       </c>
       <c r="G22" s="12"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A24" s="18" t="s">
         <v>12</v>
       </c>
@@ -1084,7 +1115,7 @@
       <c r="D24" s="12"/>
       <c r="G24" s="12"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A25" s="20"/>
       <c r="B25" s="12" t="s">
         <v>9</v>
@@ -1099,16 +1130,15 @@
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A27" s="18" t="s">
         <v>12</v>
       </c>
@@ -1118,12 +1148,14 @@
       <c r="C27" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="12"/>
+      <c r="D27" s="33" t="s">
+        <v>52</v>
+      </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A28" s="20"/>
       <c r="B28" s="12" t="s">
         <v>4</v>
@@ -1138,306 +1170,307 @@
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A29" s="21"/>
+    <row r="29" spans="1:7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A29" s="20"/>
       <c r="B29" s="12" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="12">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
+    <row r="30" spans="1:7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A30" s="21"/>
+      <c r="B30" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="12">
+        <v>1</v>
+      </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A31" s="22" t="s">
+    <row r="31" spans="1:7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A31" s="33"/>
+      <c r="B31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="12">
+        <v>2</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="1:7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" spans="1:7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A33" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B33" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="G31" s="12"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A32" s="20"/>
-      <c r="B32" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="12"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
       <c r="G33" s="12"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A34" s="22" t="s">
+    <row r="34" spans="1:7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A34" s="20"/>
+      <c r="B34" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" spans="1:7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A35" s="22"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" spans="1:7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A36" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B36" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C36" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="G34" s="12"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A35" s="20"/>
-      <c r="B35" s="12" t="s">
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="G36" s="12"/>
+    </row>
+    <row r="37" spans="1:7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A37" s="20"/>
+      <c r="B37" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C37" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D37" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="12"/>
-      <c r="G35" s="12"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A36" s="21"/>
-      <c r="B36" s="12" t="s">
+      <c r="E37" s="12"/>
+      <c r="G37" s="12"/>
+    </row>
+    <row r="38" spans="1:7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A38" s="21"/>
+      <c r="B38" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C38" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D38" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A38" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>5</v>
-      </c>
+      <c r="E38" s="12"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A39" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>45</v>
-      </c>
+    <row r="39" spans="1:7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="E39" s="12"/>
       <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="40" spans="1:7" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A40" s="22" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="25" t="s">
+      <c r="D40" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="12" t="s">
         <v>5</v>
-      </c>
-      <c r="E40" s="25" t="s">
-        <v>6</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
+    <row r="41" spans="1:7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A41" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>44</v>
+      </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A42" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="12"/>
+        <v>45</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>6</v>
+      </c>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A43" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E43" s="26"/>
+    <row r="43" spans="1:7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
       <c r="G43" s="12"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A44" s="22"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="25"/>
+    <row r="44" spans="1:7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A44" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="12"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A45" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="26"/>
+      <c r="G45" s="12"/>
+    </row>
+    <row r="46" spans="1:7" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A46" s="11"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="25"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+    </row>
+    <row r="47" spans="1:7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A47" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B47" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C47" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D47" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E45" s="27" t="s">
+      <c r="E47" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B46" s="12" t="s">
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+    </row>
+    <row r="48" spans="1:7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B48" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="C48" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D46" s="12"/>
-      <c r="G46" s="12"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B47" s="12" t="s">
+      <c r="D48" s="12"/>
+      <c r="G48" s="12"/>
+    </row>
+    <row r="49" spans="1:7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B49" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="28" t="s">
+      <c r="C49" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="28" t="s">
+      <c r="D49" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E47" s="22" t="s">
+      <c r="E49" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F47" s="12" t="s">
+      <c r="F49" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A49" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B49" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F49" s="12"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A50" s="12"/>
-      <c r="B50" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C50" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="30" t="s">
-        <v>17</v>
-      </c>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A51" s="12"/>
+    <row r="51" spans="1:7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A51" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="B51" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C51" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E51" s="12"/>
+        <v>32</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>6</v>
+      </c>
       <c r="F51" s="12"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A52" s="12"/>
       <c r="B52" s="30" t="s">
         <v>28</v>
@@ -1446,21 +1479,48 @@
         <v>11</v>
       </c>
       <c r="D52" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+    </row>
+    <row r="53" spans="1:7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A53" s="12"/>
+      <c r="B53" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+    </row>
+    <row r="54" spans="1:7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A54" s="12"/>
+      <c r="B54" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="E52" s="22" t="s">
+      <c r="E54" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F52" s="12" t="s">
+      <c r="F54" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="54" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="11"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4"/>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4"/>
+    <row r="55" spans="1:7" customFormat="1" x14ac:dyDescent="0.6"/>
+    <row r="56" spans="1:7" customFormat="1" x14ac:dyDescent="0.6"/>
+    <row r="57" spans="1:7" customFormat="1" x14ac:dyDescent="0.6"/>
+    <row r="58" spans="1:7" customFormat="1" x14ac:dyDescent="0.6"/>
+    <row r="59" spans="1:7" customFormat="1" x14ac:dyDescent="0.6"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{66D2DC29-6F43-4549-8E6E-C15E8559C7D2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{DFB44548-35AD-4F27-80EE-D27705D1DB3F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17328" windowHeight="13068" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17424" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:S14"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="53">
   <si>
     <t>int</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -228,6 +228,10 @@
   </si>
   <si>
     <t>하세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -284,7 +288,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,6 +340,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,102 +456,103 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -818,643 +835,723 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="9" max="9" width="7.8984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="7" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="12"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="13" t="s">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="14"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="15">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="16">
         <v>3</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="12">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="14">
         <v>4</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="6">
         <v>5</v>
       </c>
       <c r="C8" s="17"/>
-    </row>
-    <row r="9" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="13" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="15">
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="16">
         <v>3</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="16">
         <v>3</v>
       </c>
-      <c r="C11" s="16" t="b">
+      <c r="C11" s="19" t="b">
         <v>1</v>
       </c>
       <c r="D11" s="17"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="12" t="s">
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="14">
+        <v>2</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="21">
         <v>1</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="12" t="s">
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17" s="21"/>
+      <c r="B17" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22" s="21"/>
+      <c r="B22" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25" s="22"/>
+      <c r="B25" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="14">
+        <v>1</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A27" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28" s="22"/>
+      <c r="B28" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A29" s="23"/>
+      <c r="B29" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="14">
+        <v>1</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A31" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="14"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A32" s="22"/>
+      <c r="B32" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="C32" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="12">
-        <v>2</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="19">
-        <v>1</v>
-      </c>
-      <c r="G16" s="12"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="19"/>
-      <c r="B17" s="12" t="s">
+      <c r="D32" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="14"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A34" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="14"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A35" s="22"/>
+      <c r="B35" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="14"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="14"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A36" s="23"/>
+      <c r="B36" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A38" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A39" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A40" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+    </row>
+    <row r="42" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+    </row>
+    <row r="43" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A44" s="24"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A45" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A46" s="6"/>
+      <c r="B46" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="14"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="14"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A47" s="6"/>
+      <c r="B47" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G47" s="6"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="6"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A49" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="14"/>
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A50" s="14"/>
+      <c r="B50" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="19">
-        <v>1</v>
-      </c>
-      <c r="G21" s="12"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="19"/>
-      <c r="B22" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="12" t="s">
+      <c r="D50" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="6"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A51" s="14"/>
+      <c r="B51" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="12"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="G23" s="12"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="G24" s="12"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A25" s="20"/>
-      <c r="B25" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="12" t="s">
+      <c r="D51" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="6"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A52" s="14"/>
+      <c r="B52" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="12">
-        <v>1</v>
-      </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" s="20"/>
-      <c r="B28" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A29" s="21"/>
-      <c r="B29" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="12">
-        <v>1</v>
-      </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A31" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="G31" s="12"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A32" s="20"/>
-      <c r="B32" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="12"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="G33" s="12"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A34" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="G34" s="12"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A35" s="20"/>
-      <c r="B35" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="12"/>
-      <c r="G35" s="12"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A36" s="21"/>
-      <c r="B36" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A38" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A39" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A40" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A42" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A43" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E43" s="26"/>
-      <c r="G43" s="12"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A44" s="22"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="25"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A45" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B46" s="12" t="s">
+      <c r="D52" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F52" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C46" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D46" s="12"/>
-      <c r="G46" s="12"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B47" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C47" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="E47" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A49" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B49" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F49" s="12"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A50" s="12"/>
-      <c r="B50" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C50" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A51" s="12"/>
-      <c r="B51" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C51" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A52" s="12"/>
-      <c r="B52" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C52" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E52" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F52" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="54" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="11"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4"/>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4"/>
+      <c r="G52" s="6"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4"/>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4"/>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4"/>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{DFB44548-35AD-4F27-80EE-D27705D1DB3F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D10B6B72-3892-4812-B1D9-09F61AFF7037}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="17424" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:S14"/>
+  <oleSize ref="A28:M50"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="61">
   <si>
     <t>int</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -51,14 +51,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ch</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>fl2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>d</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -72,10 +64,6 @@
   </si>
   <si>
     <t>if</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>==</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -171,10 +159,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>matrix</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>e</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -208,10 +192,6 @@
   </si>
   <si>
     <t>scns</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>mat[1][2]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -233,6 +213,58 @@
   <si>
     <t>a+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a[1][2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;&amp;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -288,7 +320,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,6 +384,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -553,6 +597,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -837,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -859,10 +913,12 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="6"/>
+      <c r="E1" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -885,15 +941,21 @@
         <v>6</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="14"/>
@@ -915,14 +977,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="16">
@@ -961,15 +1022,14 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="14"/>
+        <v>8</v>
+      </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
@@ -985,7 +1045,6 @@
         <v>1</v>
       </c>
       <c r="D11" s="17"/>
-      <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
     </row>
@@ -1003,10 +1062,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
@@ -1015,13 +1074,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="14">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>53</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
@@ -1039,16 +1098,16 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="21">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>55</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -1060,10 +1119,10 @@
         <v>6</v>
       </c>
       <c r="C17" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>11</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>14</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -1098,13 +1157,13 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="D21" s="21">
         <v>1</v>
@@ -1119,10 +1178,10 @@
         <v>6</v>
       </c>
       <c r="C22" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>11</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>14</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -1139,10 +1198,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="22" t="b">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
@@ -1153,10 +1212,10 @@
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="22"/>
       <c r="B25" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="14" t="s">
         <v>9</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>11</v>
       </c>
       <c r="D25" s="14">
         <v>1</v>
@@ -1176,13 +1235,13 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="22" t="s">
-        <v>15</v>
-      </c>
       <c r="C27" s="23" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
@@ -1195,10 +1254,10 @@
         <v>4</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
@@ -1210,7 +1269,7 @@
         <v>4</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D29" s="14">
         <v>1</v>
@@ -1230,10 +1289,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="24" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -1247,10 +1306,10 @@
         <v>5</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
@@ -1267,13 +1326,13 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="22" t="s">
-        <v>21</v>
-      </c>
       <c r="C34" s="23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
@@ -1286,10 +1345,10 @@
         <v>5</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E35" s="14"/>
       <c r="F35" s="6"/>
@@ -1301,10 +1360,10 @@
         <v>5</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
@@ -1321,16 +1380,16 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" s="24" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>4</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E38" s="14" t="s">
         <v>5</v>
@@ -1340,25 +1399,24 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" s="24" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C40" s="27" t="s">
         <v>4</v>
@@ -1369,8 +1427,12 @@
       <c r="E40" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
+      <c r="F40" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" s="14"/>
@@ -1383,10 +1445,10 @@
     </row>
     <row r="42" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="24" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C42" s="29"/>
       <c r="D42" s="29"/>
@@ -1396,16 +1458,16 @@
     </row>
     <row r="43" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43" s="24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
@@ -1422,19 +1484,19 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" s="24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C45" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D45" s="30" t="s">
         <v>5</v>
       </c>
       <c r="E45" s="30" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="F45" s="14"/>
       <c r="G45" s="14"/>
@@ -1442,10 +1504,10 @@
     <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46" s="6"/>
       <c r="B46" s="14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="6"/>
@@ -1455,24 +1517,26 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" s="6"/>
       <c r="B47" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47" s="31" t="s">
-        <v>31</v>
-      </c>
       <c r="E47" s="24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="G47" s="6"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A48" s="14"/>
+      <c r="A48" s="24" t="s">
+        <v>22</v>
+      </c>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
@@ -1482,10 +1546,10 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49" s="32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C49" s="30" t="s">
         <v>4</v>
@@ -1493,7 +1557,7 @@
       <c r="D49" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="23" t="s">
+      <c r="E49" s="36" t="s">
         <v>6</v>
       </c>
       <c r="F49" s="14"/>
@@ -1502,13 +1566,13 @@
     <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A50" s="14"/>
       <c r="B50" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C50" s="33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
@@ -1517,38 +1581,40 @@
     <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51" s="14"/>
       <c r="B51" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C51" s="33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
       <c r="G51" s="6"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A52" s="14"/>
       <c r="B52" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C52" s="33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D52" s="33" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E52" s="24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G52" s="6"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4"/>
+    <row r="53" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="1"/>
+    </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.4"/>
     <row r="55" spans="1:10" x14ac:dyDescent="0.4"/>
     <row r="56" spans="1:10" x14ac:dyDescent="0.4"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,31 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{7D5AE67E-C8DD-407E-B29A-570FBD883FBD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{72842FAB-C09F-4A8A-A4E0-6CD7BF309C51}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="17393" windowHeight="13725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="24225" windowHeight="13725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <oleSize ref="A28:H43"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A3:O24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="57">
   <si>
     <t>int</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -246,6 +240,14 @@
   </si>
   <si>
     <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'c'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -364,7 +366,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -450,11 +452,88 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -464,105 +543,121 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -845,13 +940,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="7"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
@@ -866,98 +964,98 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A5" s="12"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A6" s="13" t="s">
+      <c r="A5" s="13"/>
+    </row>
+    <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A6" s="34" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A7" s="15">
+      <c r="A7" s="35">
         <v>3</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="36">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A8" s="12">
+      <c r="A8" s="37">
         <v>4</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="38">
         <v>5</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="39"/>
     </row>
     <row r="9" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A10" s="13" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A11" s="15">
@@ -966,63 +1064,63 @@
       <c r="B11" s="15">
         <v>3</v>
       </c>
-      <c r="C11" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A13" s="12" t="s">
+      <c r="C11" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="39"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A13" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="12">
-        <v>1</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A14" s="12" t="s">
+      <c r="C13" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="13">
         <v>2</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A16" s="18" t="s">
         <v>12</v>
       </c>
@@ -1035,41 +1133,41 @@
       <c r="D16" s="19">
         <v>1</v>
       </c>
-      <c r="G16" s="12"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A17" s="19"/>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A18" s="19"/>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A21" s="18" t="s">
         <v>12</v>
       </c>
@@ -1082,63 +1180,63 @@
       <c r="D21" s="19">
         <v>1</v>
       </c>
-      <c r="G21" s="12"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A22" s="19"/>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="12"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="G23" s="12"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A24" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="20" t="b">
+      <c r="B24" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A25" s="20"/>
+      <c r="B25" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="13">
         <v>1</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="G24" s="12"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A25" s="20"/>
-      <c r="B25" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="12">
-        <v>1</v>
-      </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A27" s="18" t="s">
         <v>12</v>
       </c>
@@ -1148,115 +1246,115 @@
       <c r="C27" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="33" t="s">
+      <c r="D27" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-    </row>
-    <row r="28" spans="1:7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A28" s="20"/>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-    </row>
-    <row r="29" spans="1:7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A29" s="20"/>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-    </row>
-    <row r="30" spans="1:7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A30" s="21"/>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="13">
         <v>1</v>
       </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-    </row>
-    <row r="31" spans="1:7" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A31" s="33"/>
-      <c r="B31" s="12" t="s">
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A31" s="22"/>
+      <c r="B31" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="13">
         <v>2</v>
       </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-    </row>
-    <row r="32" spans="1:7" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-    </row>
-    <row r="33" spans="1:7" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A33" s="22" t="s">
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+    </row>
+    <row r="33" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A33" s="23" t="s">
         <v>18</v>
       </c>
       <c r="B33" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="G33" s="12"/>
-    </row>
-    <row r="34" spans="1:7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="G33" s="13"/>
+    </row>
+    <row r="34" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A34" s="20"/>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G34" s="12"/>
-    </row>
-    <row r="35" spans="1:7" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A35" s="22"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="G35" s="12"/>
-    </row>
-    <row r="36" spans="1:7" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A36" s="22" t="s">
+      <c r="G34" s="13"/>
+    </row>
+    <row r="35" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A35" s="23"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="G35" s="13"/>
+    </row>
+    <row r="36" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A36" s="23" t="s">
         <v>18</v>
       </c>
       <c r="B36" s="20" t="s">
@@ -1265,262 +1363,268 @@
       <c r="C36" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="G36" s="12"/>
-    </row>
-    <row r="37" spans="1:7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="G36" s="13"/>
+    </row>
+    <row r="37" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A37" s="20"/>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="12"/>
-      <c r="G37" s="12"/>
-    </row>
-    <row r="38" spans="1:7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="E37" s="13"/>
+      <c r="G37" s="13"/>
+    </row>
+    <row r="38" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A38" s="21"/>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="23" t="s">
+      <c r="D38" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-    </row>
-    <row r="39" spans="1:7" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-    </row>
-    <row r="40" spans="1:7" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A40" s="22" t="s">
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+    </row>
+    <row r="39" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+    </row>
+    <row r="40" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A40" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-    </row>
-    <row r="41" spans="1:7" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A41" s="22" t="s">
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+    </row>
+    <row r="41" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A41" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-    </row>
-    <row r="42" spans="1:7" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A42" s="22" t="s">
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+    </row>
+    <row r="42" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A42" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="24" t="s">
+      <c r="B42" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="25" t="s">
+      <c r="D42" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="25" t="s">
+      <c r="E42" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-    </row>
-    <row r="43" spans="1:7" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-    </row>
-    <row r="44" spans="1:7" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A44" s="22" t="s">
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+    </row>
+    <row r="43" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+    </row>
+    <row r="44" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A44" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-    </row>
-    <row r="45" spans="1:7" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A45" s="22" t="s">
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+    </row>
+    <row r="45" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="26"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+    </row>
+    <row r="46" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A46" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+    </row>
+    <row r="47" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B47" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="13"/>
+      <c r="G47" s="13"/>
+    </row>
+    <row r="48" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B48" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+    </row>
+    <row r="50" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A50" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" s="13"/>
+    </row>
+    <row r="51" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A51" s="13"/>
+      <c r="B51" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+    </row>
+    <row r="52" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A52" s="13"/>
+      <c r="B52" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+    </row>
+    <row r="53" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A53" s="13"/>
+      <c r="B53" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E53" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="7" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A55" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B55" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C55" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D45" s="24" t="s">
+      <c r="D55" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E45" s="26"/>
-      <c r="G45" s="12"/>
-    </row>
-    <row r="46" spans="1:7" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A46" s="11"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="25"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-    </row>
-    <row r="47" spans="1:7" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A47" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-    </row>
-    <row r="48" spans="1:7" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="B48" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C48" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D48" s="12"/>
-      <c r="G48" s="12"/>
-    </row>
-    <row r="49" spans="1:7" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="B49" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C49" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D49" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="E49" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-    </row>
-    <row r="51" spans="1:7" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A51" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B51" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C51" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F51" s="12"/>
-    </row>
-    <row r="52" spans="1:7" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A52" s="12"/>
-      <c r="B52" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C52" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-    </row>
-    <row r="53" spans="1:7" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A53" s="12"/>
-      <c r="B53" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C53" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-    </row>
-    <row r="54" spans="1:7" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A54" s="12"/>
-      <c r="B54" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C54" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E54" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F54" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" customFormat="1" x14ac:dyDescent="0.6"/>
-    <row r="56" spans="1:7" customFormat="1" x14ac:dyDescent="0.6"/>
-    <row r="57" spans="1:7" customFormat="1" x14ac:dyDescent="0.6"/>
-    <row r="58" spans="1:7" customFormat="1" x14ac:dyDescent="0.6"/>
-    <row r="59" spans="1:7" customFormat="1" x14ac:dyDescent="0.6"/>
+      <c r="E55" s="29"/>
+      <c r="G55" s="13"/>
+    </row>
+    <row r="56" spans="1:7" s="7" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A56" s="5"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="26"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+    </row>
+    <row r="57" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.6"/>
+    <row r="58" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.6"/>
+    <row r="59" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.6"/>
+    <row r="60" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.6"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D10B6B72-3892-4812-B1D9-09F61AFF7037}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{4252048C-76CD-49E9-B98A-570BC7A08859}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17424" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17448" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="62">
   <si>
     <t>int</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -265,6 +265,10 @@
   <si>
     <t>g</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -891,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1041,8 +1045,8 @@
       <c r="B11" s="16">
         <v>3</v>
       </c>
-      <c r="C11" s="19" t="b">
-        <v>1</v>
+      <c r="C11" s="19" t="s">
+        <v>61</v>
       </c>
       <c r="D11" s="17"/>
       <c r="F11" s="14"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{82CC8FD9-5505-4E6D-B56F-677D86BC4E3F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9AD71CED-D80B-4952-976A-A1A2FEDD8FC9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="735" yWindow="735" windowWidth="17460" windowHeight="13725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A28:M50"/>
+  <oleSize ref="A40:J54"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="60">
   <si>
     <t>int</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -140,14 +140,6 @@
   </si>
   <si>
     <t>root</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>a+b</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>a+b+c</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -265,6 +257,10 @@
   <si>
     <t>'c'</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a+1+2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -821,7 +817,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
@@ -844,10 +842,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G1" s="3"/>
     </row>
@@ -871,16 +869,16 @@
         <v>6</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H3" s="28" t="s">
         <v>25</v>
@@ -901,7 +899,7 @@
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A6" s="26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
@@ -934,7 +932,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>8</v>
@@ -951,7 +949,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D11" s="25"/>
       <c r="F11" s="5"/>
@@ -968,13 +966,13 @@
     </row>
     <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A13" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -989,7 +987,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -1013,10 +1011,10 @@
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G16" s="5"/>
     </row>
@@ -1050,7 +1048,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D21" s="7">
         <v>1</v>
@@ -1082,7 +1080,7 @@
         <v>10</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -1247,16 +1245,16 @@
     </row>
     <row r="38" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A38" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>5</v>
@@ -1266,22 +1264,22 @@
     </row>
     <row r="39" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A39" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="13" t="s">
         <v>39</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>41</v>
       </c>
       <c r="F39" s="5"/>
     </row>
     <row r="40" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A40" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>4</v>
@@ -1293,10 +1291,10 @@
         <v>6</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
@@ -1308,12 +1306,12 @@
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
     </row>
-    <row r="42" spans="1:10" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A42" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
@@ -1326,18 +1324,17 @@
         <v>22</v>
       </c>
       <c r="B43" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="12" t="s">
-        <v>46</v>
-      </c>
       <c r="D43" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A44" s="10"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A44" s="1"/>
       <c r="B44" s="12"/>
       <c r="C44" s="13"/>
       <c r="F44" s="5"/>
@@ -1357,7 +1354,7 @@
         <v>5</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
@@ -1390,9 +1387,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A48" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="A48" s="10"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -1440,12 +1435,12 @@
         <v>9</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
     </row>
-    <row r="52" spans="1:10" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="52" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A52" s="5"/>
       <c r="B52" s="19" t="s">
         <v>25</v>
@@ -1454,7 +1449,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>27</v>
@@ -1463,9 +1458,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A53" s="1"/>
-    </row>
+    <row r="53" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6"/>
     <row r="54" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6"/>
     <row r="55" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6"/>
     <row r="56" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9AD71CED-D80B-4952-976A-A1A2FEDD8FC9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{16506AD2-942D-4887-83DC-414146ACE703}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="17460" windowHeight="13725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17484" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -817,18 +817,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="7.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.8984375" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -849,7 +849,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -858,7 +858,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="26" t="s">
         <v>4</v>
       </c>
@@ -885,7 +885,7 @@
       </c>
       <c r="I3" s="25"/>
     </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -894,15 +894,15 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
     </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="26" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="30">
         <v>3</v>
       </c>
@@ -910,7 +910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="30">
         <v>4</v>
       </c>
@@ -919,7 +919,7 @@
       </c>
       <c r="C8" s="25"/>
     </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
@@ -927,7 +927,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="26" t="s">
         <v>7</v>
       </c>
@@ -941,7 +941,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="30">
         <v>3</v>
       </c>
@@ -955,7 +955,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -964,7 +964,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>47</v>
       </c>
@@ -979,7 +979,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
@@ -994,7 +994,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1003,7 +1003,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
         <v>10</v>
       </c>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="7"/>
       <c r="B17" s="5" t="s">
         <v>6</v>
@@ -1031,16 +1031,16 @@
       </c>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
         <v>10</v>
       </c>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="7"/>
       <c r="B22" s="5" t="s">
         <v>6</v>
@@ -1068,14 +1068,14 @@
       </c>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
         <v>10</v>
       </c>
@@ -1086,7 +1086,7 @@
       <c r="D24" s="5"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="8"/>
       <c r="B25" s="5" t="s">
         <v>7</v>
@@ -1101,7 +1101,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1110,7 +1110,7 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
         <v>10</v>
       </c>
@@ -1125,7 +1125,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
       <c r="B28" s="5" t="s">
         <v>4</v>
@@ -1140,7 +1140,7 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A29" s="9"/>
       <c r="B29" s="5" t="s">
         <v>4</v>
@@ -1155,7 +1155,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1164,7 +1164,7 @@
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="10" t="s">
         <v>15</v>
       </c>
@@ -1176,7 +1176,7 @@
       <c r="E31" s="5"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32" s="8"/>
       <c r="B32" s="5" t="s">
         <v>5</v>
@@ -1189,14 +1189,13 @@
       </c>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A33" s="5"/>
+    <row r="33" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A34" s="10" t="s">
         <v>15</v>
       </c>
@@ -1210,7 +1209,7 @@
       <c r="E34" s="5"/>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35" s="8"/>
       <c r="B35" s="5" t="s">
         <v>5</v>
@@ -1224,7 +1223,7 @@
       <c r="E35" s="5"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="9"/>
       <c r="B36" s="5" t="s">
         <v>5</v>
@@ -1239,11 +1238,11 @@
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A38" s="10" t="s">
         <v>34</v>
       </c>
@@ -1262,7 +1261,7 @@
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A39" s="10" t="s">
         <v>37</v>
       </c>
@@ -1274,7 +1273,7 @@
       </c>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A40" s="10" t="s">
         <v>40</v>
       </c>
@@ -1297,7 +1296,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -1306,7 +1305,7 @@
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
     </row>
-    <row r="42" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A42" s="10" t="s">
         <v>21</v>
       </c>
@@ -1319,7 +1318,7 @@
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="1:10" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="43" spans="1:10" s="2" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43" s="10" t="s">
         <v>22</v>
       </c>
@@ -1333,14 +1332,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="44" spans="1:10" s="2" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="1"/>
       <c r="B44" s="12"/>
       <c r="C44" s="13"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A45" s="10" t="s">
         <v>23</v>
       </c>
@@ -1359,7 +1358,7 @@
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
     </row>
-    <row r="46" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B46" s="5" t="s">
         <v>25</v>
       </c>
@@ -1369,7 +1368,7 @@
       <c r="D46" s="5"/>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B47" s="5" t="s">
         <v>25</v>
       </c>
@@ -1386,7 +1385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A48" s="10"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -1394,7 +1393,7 @@
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A49" s="18" t="s">
         <v>23</v>
       </c>
@@ -1412,7 +1411,7 @@
       </c>
       <c r="F49" s="5"/>
     </row>
-    <row r="50" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A50" s="5"/>
       <c r="B50" s="19" t="s">
         <v>25</v>
@@ -1426,7 +1425,7 @@
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
     </row>
-    <row r="51" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A51" s="5"/>
       <c r="B51" s="19" t="s">
         <v>25</v>
@@ -1440,7 +1439,7 @@
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
     </row>
-    <row r="52" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A52" s="5"/>
       <c r="B52" s="19" t="s">
         <v>25</v>
@@ -1458,10 +1457,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6"/>
-    <row r="54" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6"/>
-    <row r="55" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6"/>
-    <row r="56" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6"/>
+    <row r="53" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="54" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="55" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="56" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{16506AD2-942D-4887-83DC-414146ACE703}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0A97B19C-159F-4F15-97CB-478534F645FA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17484" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3600" yWindow="2340" windowWidth="17760" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,14 +71,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>a==1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>a==2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>a+1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -151,10 +143,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>e</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>e[2][2]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -231,10 +219,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&gt;=</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>true</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -260,6 +244,22 @@
   </si>
   <si>
     <t>a+1+2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>a&lt;&gt;2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>a?=1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>??</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -817,18 +817,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="7.8984375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.875" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -842,14 +842,14 @@
         <v>3</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -858,7 +858,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>4</v>
       </c>
@@ -869,23 +869,23 @@
         <v>6</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I3" s="25"/>
     </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -894,15 +894,15 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
     </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30">
         <v>3</v>
       </c>
@@ -910,7 +910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30">
         <v>4</v>
       </c>
@@ -919,7 +919,7 @@
       </c>
       <c r="C8" s="25"/>
     </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
@@ -927,12 +927,12 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>8</v>
@@ -941,7 +941,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="30">
         <v>3</v>
       </c>
@@ -949,13 +949,13 @@
         <v>3</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D11" s="25"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -964,22 +964,22 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
@@ -987,14 +987,14 @@
         <v>9</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1003,7 +1003,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>10</v>
       </c>
@@ -1011,14 +1011,14 @@
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="5" t="s">
         <v>6</v>
@@ -1031,16 +1031,16 @@
       </c>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>10</v>
       </c>
@@ -1048,14 +1048,14 @@
         <v>4</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D21" s="7">
         <v>1</v>
       </c>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="5" t="s">
         <v>6</v>
@@ -1068,25 +1068,25 @@
       </c>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="5" t="s">
         <v>7</v>
@@ -1101,7 +1101,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1110,22 +1110,22 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="5" t="s">
         <v>4</v>
@@ -1134,13 +1134,13 @@
         <v>9</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="5" t="s">
         <v>4</v>
@@ -1155,7 +1155,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1164,19 +1164,19 @@
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="B32" s="5" t="s">
         <v>5</v>
@@ -1185,31 +1185,31 @@
         <v>9</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
       <c r="B35" s="5" t="s">
         <v>5</v>
@@ -1218,12 +1218,12 @@
         <v>9</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E35" s="5"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
       <c r="B36" s="5" t="s">
         <v>5</v>
@@ -1232,28 +1232,28 @@
         <v>9</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>5</v>
@@ -1261,24 +1261,24 @@
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F39" s="5"/>
-    </row>
-    <row r="40" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="10" t="s">
-        <v>40</v>
-      </c>
       <c r="B40" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>4</v>
@@ -1290,13 +1290,13 @@
         <v>6</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -1305,12 +1305,12 @@
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
     </row>
-    <row r="42" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
@@ -1318,33 +1318,33 @@
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="1:10" s="2" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:10" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="2" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="12"/>
       <c r="C44" s="13"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C45" s="16" t="s">
         <v>4</v>
@@ -1353,39 +1353,39 @@
         <v>5</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
     </row>
-    <row r="46" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B46" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D46" s="5"/>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B47" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="F47" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -1393,12 +1393,12 @@
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C49" s="16" t="s">
         <v>4</v>
@@ -1411,56 +1411,56 @@
       </c>
       <c r="F49" s="5"/>
     </row>
-    <row r="50" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C50" s="19" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
     </row>
-    <row r="51" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
       <c r="B51" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C51" s="19" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
     </row>
-    <row r="52" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C52" s="19" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="54" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="55" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="56" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0A97B19C-159F-4F15-97CB-478534F645FA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E8D530D6-A9F9-4617-854B-3154B6287D03}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="2340" windowWidth="17760" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="390" windowWidth="21630" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A40:J54"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="62">
   <si>
     <t>int</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -207,10 +207,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>a[1][2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&amp;&amp;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -243,10 +239,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a+1+2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>a&lt;&gt;2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -261,6 +253,22 @@
   <si>
     <t>num</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>e[1][2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -424,12 +432,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -454,9 +461,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -464,9 +468,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -514,25 +515,22 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -815,652 +813,501 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G11" sqref="G10:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="7.875" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="1" max="8" width="9" style="4"/>
+    <col min="9" max="9" width="7.875" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="H3" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="22"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="27">
+        <v>3</v>
+      </c>
+      <c r="B7" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="27">
         <v>4</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B8" s="27">
         <v>5</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C8" s="22"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="27">
+        <v>3</v>
+      </c>
+      <c r="B11" s="27">
+        <v>3</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="22"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="34" t="s">
+      <c r="B14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="7"/>
+      <c r="B32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+      <c r="B35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="8"/>
+      <c r="B36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+    </row>
+    <row r="43" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="11"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="28" t="s">
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B46" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="25"/>
-    </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30">
-        <v>3</v>
-      </c>
-      <c r="B7" s="31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30">
+      <c r="C46" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B47" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="9"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="31">
+      <c r="D49" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="25"/>
-    </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="26" t="s">
+      <c r="E49" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B50" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B51" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B52" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30">
-        <v>3</v>
-      </c>
-      <c r="B11" s="30">
-        <v>3</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="25"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="7">
+      <c r="D52" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F52" s="4">
         <v>1</v>
       </c>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
-      <c r="B25" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="5">
-        <v>1</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
-      <c r="B28" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="5">
-        <v>1</v>
-      </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="8"/>
-      <c r="B32" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="5"/>
-    </row>
-    <row r="33" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="G33" s="5"/>
-    </row>
-    <row r="34" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="G34" s="5"/>
-    </row>
-    <row r="35" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="8"/>
-      <c r="B35" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="5"/>
-      <c r="G35" s="5"/>
-    </row>
-    <row r="36" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="9"/>
-      <c r="B36" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-    </row>
-    <row r="37" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-    </row>
-    <row r="38" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-    </row>
-    <row r="39" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F39" s="5"/>
-    </row>
-    <row r="40" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-    </row>
-    <row r="42" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-    </row>
-    <row r="43" spans="1:10" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="1"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="13"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-    </row>
-    <row r="45" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-    </row>
-    <row r="46" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D46" s="5"/>
-      <c r="G46" s="5"/>
-    </row>
-    <row r="47" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F47" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="10"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-    </row>
-    <row r="49" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F49" s="5"/>
-    </row>
-    <row r="50" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5"/>
-      <c r="B50" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-    </row>
-    <row r="51" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="5"/>
-      <c r="B51" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-    </row>
-    <row r="52" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5"/>
-      <c r="B52" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E8D530D6-A9F9-4617-854B-3154B6287D03}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D8EBC038-A4BF-473E-A75F-D531C7E8AEA1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="390" windowWidth="21630" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17508" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:K23"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="64">
   <si>
     <t>int</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -71,6 +71,14 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>a==1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>a==2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>a+1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -143,6 +151,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>e</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>e[2][2]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -207,6 +219,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>a[1][2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>&amp;&amp;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -215,6 +231,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>&gt;=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>true</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -231,43 +251,31 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'c'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a&lt;&gt;2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>a?=1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>??</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>num</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>e[1][2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a+5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ret</t>
+    <t>a+1+2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>'a'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'b'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,11 +440,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -461,6 +470,9 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -468,6 +480,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -515,9 +530,18 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -527,12 +551,13 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -813,501 +838,658 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G10:G11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="8" width="9" style="4"/>
-    <col min="9" max="9" width="7.875" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="4"/>
+    <col min="1" max="8" width="9" style="2"/>
+    <col min="9" max="9" width="7.8984375" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="25"/>
+    </row>
+    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="30">
+        <v>3</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="31">
+        <v>5</v>
+      </c>
+      <c r="C8" s="25"/>
+    </row>
+    <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="30">
+        <v>3</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="25"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="7"/>
+      <c r="B17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="7"/>
+      <c r="B22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="8"/>
+      <c r="B25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="8"/>
+      <c r="B28" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="9"/>
+      <c r="B29" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="8"/>
+      <c r="B32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="8"/>
+      <c r="B35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="9"/>
+      <c r="B36" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="1:10" s="2" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="2" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="1"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="13"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="E47" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="10"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+    </row>
+    <row r="49" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="D49" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="E49" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="22"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="27">
-        <v>3</v>
-      </c>
-      <c r="B7" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="27">
-        <v>4</v>
-      </c>
-      <c r="B8" s="27">
-        <v>5</v>
-      </c>
-      <c r="C8" s="22"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23" t="s">
+      <c r="F49" s="5"/>
+    </row>
+    <row r="50" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="5"/>
+      <c r="B50" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+    </row>
+    <row r="51" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="5"/>
+      <c r="B51" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+    </row>
+    <row r="52" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="5"/>
+      <c r="B52" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="27">
-        <v>3</v>
-      </c>
-      <c r="B11" s="27">
-        <v>3</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="22"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="7"/>
-      <c r="B32" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
-      <c r="B35" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="8"/>
-      <c r="B36" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-    </row>
-    <row r="43" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="1"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="11"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B46" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B47" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E47" s="9" t="s">
+      <c r="E52" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F47" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="9"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B50" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B51" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B52" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F52" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3"/>
+    </row>
+    <row r="53" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="54" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="55" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="56" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D8EBC038-A4BF-473E-A75F-D531C7E8AEA1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3C5F340E-714B-4DF3-8E47-0742F40B837D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17508" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="368" yWindow="368" windowWidth="17535" windowHeight="13724" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K23"/>
+  <oleSize ref="A37:J57"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="68">
   <si>
     <t>int</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -203,79 +203,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>asd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>a[1][2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;&amp;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>a+1+2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>'a'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'b'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>asd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>f</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>a[1][2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;&amp;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;=</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>str</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>a+1+2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>'a'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'b'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asd</t>
+    <t xml:space="preserve">= </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plus(parser fuck you)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=plus(please  Stop meee)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -840,18 +856,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="7.8984375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.875" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -865,14 +881,14 @@
         <v>3</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F1" s="29" t="s">
         <v>30</v>
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -881,7 +897,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A3" s="26" t="s">
         <v>4</v>
       </c>
@@ -892,23 +908,23 @@
         <v>6</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" s="36" t="s">
         <v>31</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H3" s="28" t="s">
         <v>25</v>
       </c>
       <c r="I3" s="25"/>
     </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -917,40 +933,40 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A5" s="5"/>
     </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A6" s="26" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A7" s="30">
         <v>3</v>
       </c>
       <c r="B7" s="38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="39" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="39" t="s">
-        <v>61</v>
       </c>
       <c r="B8" s="31">
         <v>5</v>
       </c>
       <c r="C8" s="25"/>
     </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.6">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5" ph="1"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A10" s="26" t="s">
         <v>7</v>
       </c>
@@ -961,30 +977,30 @@
         <v>8</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A11" s="30">
         <v>3</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -993,22 +1009,22 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A13" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
@@ -1016,14 +1032,14 @@
         <v>9</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1032,7 +1048,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A16" s="6" t="s">
         <v>10</v>
       </c>
@@ -1040,14 +1056,14 @@
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A17" s="7"/>
       <c r="B17" s="5" t="s">
         <v>6</v>
@@ -1060,16 +1076,16 @@
       </c>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A21" s="6" t="s">
         <v>10</v>
       </c>
@@ -1077,14 +1093,14 @@
         <v>4</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21" s="7">
         <v>1</v>
       </c>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A22" s="7"/>
       <c r="B22" s="5" t="s">
         <v>6</v>
@@ -1097,25 +1113,25 @@
       </c>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A24" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A25" s="8"/>
       <c r="B25" s="5" t="s">
         <v>7</v>
@@ -1130,7 +1146,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1139,7 +1155,7 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A27" s="6" t="s">
         <v>10</v>
       </c>
@@ -1154,7 +1170,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A28" s="8"/>
       <c r="B28" s="5" t="s">
         <v>4</v>
@@ -1169,7 +1185,7 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A29" s="9"/>
       <c r="B29" s="5" t="s">
         <v>4</v>
@@ -1184,7 +1200,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1193,7 +1209,7 @@
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A31" s="10" t="s">
         <v>15</v>
       </c>
@@ -1205,7 +1221,7 @@
       <c r="E31" s="5"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A32" s="8"/>
       <c r="B32" s="5" t="s">
         <v>5</v>
@@ -1218,13 +1234,13 @@
       </c>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A34" s="10" t="s">
         <v>15</v>
       </c>
@@ -1238,7 +1254,7 @@
       <c r="E34" s="5"/>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A35" s="8"/>
       <c r="B35" s="5" t="s">
         <v>5</v>
@@ -1252,7 +1268,7 @@
       <c r="E35" s="5"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A36" s="9"/>
       <c r="B36" s="5" t="s">
         <v>5</v>
@@ -1267,11 +1283,11 @@
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A38" s="10" t="s">
         <v>34</v>
       </c>
@@ -1290,7 +1306,7 @@
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A39" s="10" t="s">
         <v>37</v>
       </c>
@@ -1302,7 +1318,7 @@
       </c>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A40" s="10" t="s">
         <v>40</v>
       </c>
@@ -1319,13 +1335,13 @@
         <v>6</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -1334,7 +1350,7 @@
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
     </row>
-    <row r="42" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A42" s="10" t="s">
         <v>21</v>
       </c>
@@ -1347,7 +1363,7 @@
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="1:10" s="2" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:10" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A43" s="10" t="s">
         <v>22</v>
       </c>
@@ -1361,14 +1377,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="2" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:10" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A44" s="1"/>
       <c r="B44" s="12"/>
       <c r="C44" s="13"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A45" s="10" t="s">
         <v>23</v>
       </c>
@@ -1382,12 +1398,12 @@
         <v>5</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
     </row>
-    <row r="46" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="B46" s="5" t="s">
         <v>25</v>
       </c>
@@ -1397,7 +1413,7 @@
       <c r="D46" s="5"/>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="B47" s="5" t="s">
         <v>25</v>
       </c>
@@ -1414,7 +1430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A48" s="10"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -1422,7 +1438,7 @@
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A49" s="18" t="s">
         <v>23</v>
       </c>
@@ -1440,7 +1456,7 @@
       </c>
       <c r="F49" s="5"/>
     </row>
-    <row r="50" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A50" s="5"/>
       <c r="B50" s="19" t="s">
         <v>25</v>
@@ -1454,7 +1470,7 @@
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
     </row>
-    <row r="51" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A51" s="5"/>
       <c r="B51" s="19" t="s">
         <v>25</v>
@@ -1468,7 +1484,7 @@
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
     </row>
-    <row r="52" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A52" s="5"/>
       <c r="B52" s="19" t="s">
         <v>25</v>
@@ -1477,7 +1493,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>27</v>
@@ -1486,10 +1502,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="54" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="55" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="56" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="53" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6"/>
+    <row r="54" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A54" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A55" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3C5F340E-714B-4DF3-8E47-0742F40B837D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5FAF69A3-B932-4872-BE4A-0CBF42D5549B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="368" yWindow="368" windowWidth="17535" windowHeight="13724" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="17550" windowHeight="13725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A37:J57"/>
+  <oleSize ref="A43:J63"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="65">
   <si>
     <t>int</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -259,39 +259,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">= </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>asd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">= </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plus(parser fuck you)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a=plus(please  Stop meee)</t>
+    <t>plus(2*a+1,a+25*3)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -568,12 +556,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -856,9 +849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
@@ -945,13 +936,13 @@
       <c r="A7" s="30">
         <v>3</v>
       </c>
-      <c r="B7" s="38" t="s">
-        <v>59</v>
+      <c r="B7" s="39">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="39" t="s">
-        <v>60</v>
+      <c r="A8" s="40">
+        <v>5</v>
       </c>
       <c r="B8" s="31">
         <v>5</v>
@@ -977,7 +968,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -987,14 +978,14 @@
       <c r="A11" s="30">
         <v>3</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="38" t="s">
         <v>58</v>
       </c>
       <c r="C11" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="40" t="s">
-        <v>62</v>
+      <c r="D11" s="41" t="s">
+        <v>63</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="5"/>
@@ -1338,7 +1329,7 @@
         <v>45</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
@@ -1505,20 +1496,16 @@
     <row r="53" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6"/>
     <row r="54" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A54" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A55" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
+    </row>
+    <row r="55" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6"/>
     <row r="56" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5FAF69A3-B932-4872-BE4A-0CBF42D5549B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{EE1AE19E-4C64-4D06-90CB-2D9519EA13DE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="17550" windowHeight="13725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1103" yWindow="1103" windowWidth="17579" windowHeight="13725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="66">
   <si>
     <t>int</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -263,14 +269,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">= </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>e</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -279,7 +277,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>plus(2*a+1,a+25*3)</t>
+    <t>a = plus(2*a+1,a+25*3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b--100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a--100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a++100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,7 +454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -567,6 +577,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -847,9 +858,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
@@ -985,7 +998,7 @@
         <v>52</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="5"/>
@@ -1329,7 +1342,7 @@
         <v>45</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
@@ -1496,17 +1509,25 @@
     <row r="53" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6"/>
     <row r="54" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A54" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C54" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A55" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6"/>
-    <row r="56" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6"/>
+      <c r="B55" s="42"/>
+    </row>
+    <row r="56" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A56" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A57" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{EE1AE19E-4C64-4D06-90CB-2D9519EA13DE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{63EEA972-F191-4196-8950-28C1330C4CDF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="1103" windowWidth="17579" windowHeight="13725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17628" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,18 +16,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="66">
   <si>
     <t>int</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -346,7 +340,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -403,12 +397,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -454,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -514,7 +502,7 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -526,16 +514,10 @@
     <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -550,10 +532,10 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -858,20 +840,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="7.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.8984375" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -881,18 +863,18 @@
       <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="27" t="s">
         <v>30</v>
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -901,34 +883,30 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="25"/>
-    </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    </row>
+    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -937,32 +915,31 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
     </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="26" t="s">
+    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="30">
+    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="28">
         <v>3</v>
       </c>
-      <c r="B7" s="39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="40">
+      <c r="B7" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="38">
         <v>5</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="29">
         <v>5</v>
       </c>
-      <c r="C8" s="25"/>
-    </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.6">
+    </row>
+    <row r="9" spans="1:10" s="2" customFormat="1" ht="28.2" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
@@ -970,41 +947,40 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="26" t="s">
+    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="25" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="32" t="s">
         <v>59</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="30">
+    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="28">
         <v>3</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="25"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1013,7 +989,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>46</v>
       </c>
@@ -1028,7 +1004,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
@@ -1043,7 +1019,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1052,7 +1028,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
         <v>10</v>
       </c>
@@ -1067,7 +1043,7 @@
       </c>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="7"/>
       <c r="B17" s="5" t="s">
         <v>6</v>
@@ -1080,16 +1056,16 @@
       </c>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
         <v>10</v>
       </c>
@@ -1104,7 +1080,7 @@
       </c>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="7"/>
       <c r="B22" s="5" t="s">
         <v>6</v>
@@ -1117,14 +1093,14 @@
       </c>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
         <v>10</v>
       </c>
@@ -1135,7 +1111,7 @@
       <c r="D24" s="5"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="8"/>
       <c r="B25" s="5" t="s">
         <v>7</v>
@@ -1150,7 +1126,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1159,7 +1135,7 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
         <v>10</v>
       </c>
@@ -1174,7 +1150,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
       <c r="B28" s="5" t="s">
         <v>4</v>
@@ -1189,7 +1165,7 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A29" s="9"/>
       <c r="B29" s="5" t="s">
         <v>4</v>
@@ -1204,7 +1180,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1213,7 +1189,7 @@
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="10" t="s">
         <v>15</v>
       </c>
@@ -1225,7 +1201,7 @@
       <c r="E31" s="5"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32" s="8"/>
       <c r="B32" s="5" t="s">
         <v>5</v>
@@ -1238,13 +1214,13 @@
       </c>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A34" s="10" t="s">
         <v>15</v>
       </c>
@@ -1258,7 +1234,7 @@
       <c r="E34" s="5"/>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35" s="8"/>
       <c r="B35" s="5" t="s">
         <v>5</v>
@@ -1272,7 +1248,7 @@
       <c r="E35" s="5"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="9"/>
       <c r="B36" s="5" t="s">
         <v>5</v>
@@ -1287,11 +1263,11 @@
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A38" s="10" t="s">
         <v>34</v>
       </c>
@@ -1310,7 +1286,7 @@
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A39" s="10" t="s">
         <v>37</v>
       </c>
@@ -1322,7 +1298,7 @@
       </c>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A40" s="10" t="s">
         <v>40</v>
       </c>
@@ -1345,7 +1321,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -1354,7 +1330,7 @@
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
     </row>
-    <row r="42" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A42" s="10" t="s">
         <v>21</v>
       </c>
@@ -1367,7 +1343,7 @@
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="1:10" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="43" spans="1:10" s="2" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43" s="10" t="s">
         <v>22</v>
       </c>
@@ -1381,14 +1357,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="44" spans="1:10" s="2" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="1"/>
       <c r="B44" s="12"/>
       <c r="C44" s="13"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A45" s="10" t="s">
         <v>23</v>
       </c>
@@ -1407,124 +1383,123 @@
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
     </row>
-    <row r="46" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="B46" s="5" t="s">
+    <row r="46" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="5"/>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="48" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="5"/>
-      <c r="G46" s="5"/>
-    </row>
-    <row r="47" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="B47" s="5" t="s">
+      <c r="D48" s="5"/>
+    </row>
+    <row r="49" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C49" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="D49" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="E49" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F49" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A48" s="10"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-    </row>
-    <row r="49" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A49" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F49" s="5"/>
-    </row>
-    <row r="50" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A50" s="5"/>
-      <c r="B50" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="19" t="s">
-        <v>14</v>
-      </c>
+    <row r="50" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="10"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
     </row>
-    <row r="51" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A51" s="5"/>
+    <row r="51" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="B51" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" s="5"/>
+    </row>
+    <row r="52" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B52" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="19" t="s">
+    </row>
+    <row r="53" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="54" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="5"/>
+      <c r="B54" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="19" t="s">
+      <c r="D54" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-    </row>
-    <row r="52" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A52" s="5"/>
-      <c r="B52" s="19" t="s">
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+    </row>
+    <row r="55" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="5"/>
+      <c r="B55" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C55" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="19" t="s">
+      <c r="D55" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="E55" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="F55" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6"/>
-    <row r="54" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A54" s="2" t="s">
+    <row r="56" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A57" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A55" s="2" t="s">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A58" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B55" s="42"/>
-    </row>
-    <row r="56" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A56" s="2" t="s">
+      <c r="B58" s="40"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A59" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A57" s="2" t="s">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A60" s="2" t="s">
         <v>65</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,15 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{63EEA972-F191-4196-8950-28C1330C4CDF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC155457-31DF-4AD4-A8C4-7213922B8515}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17628" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A43:J63"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="69">
   <si>
     <t>int</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -284,6 +283,18 @@
   </si>
   <si>
     <t>a++100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root(a, b, c)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -840,20 +851,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="7.8984375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.875" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -874,7 +885,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -883,7 +894,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>4</v>
       </c>
@@ -906,7 +917,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -915,15 +926,15 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
     </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
         <v>3</v>
       </c>
@@ -931,7 +942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="38">
         <v>5</v>
       </c>
@@ -939,7 +950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" ht="28.2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
@@ -947,7 +958,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>7</v>
       </c>
@@ -964,7 +975,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
         <v>3</v>
       </c>
@@ -980,7 +991,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -989,7 +1000,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>46</v>
       </c>
@@ -1004,7 +1015,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
@@ -1019,7 +1030,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1028,7 +1039,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>10</v>
       </c>
@@ -1043,7 +1054,7 @@
       </c>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="5" t="s">
         <v>6</v>
@@ -1056,16 +1067,16 @@
       </c>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>10</v>
       </c>
@@ -1080,7 +1091,7 @@
       </c>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="5" t="s">
         <v>6</v>
@@ -1093,14 +1104,14 @@
       </c>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>10</v>
       </c>
@@ -1111,7 +1122,7 @@
       <c r="D24" s="5"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="5" t="s">
         <v>7</v>
@@ -1126,7 +1137,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1135,7 +1146,7 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>10</v>
       </c>
@@ -1150,7 +1161,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="5" t="s">
         <v>4</v>
@@ -1165,7 +1176,7 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="5" t="s">
         <v>4</v>
@@ -1180,7 +1191,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1189,7 +1200,7 @@
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>15</v>
       </c>
@@ -1201,7 +1212,7 @@
       <c r="E31" s="5"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="B32" s="5" t="s">
         <v>5</v>
@@ -1214,13 +1225,13 @@
       </c>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>15</v>
       </c>
@@ -1234,7 +1245,7 @@
       <c r="E34" s="5"/>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
       <c r="B35" s="5" t="s">
         <v>5</v>
@@ -1248,7 +1259,7 @@
       <c r="E35" s="5"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
       <c r="B36" s="5" t="s">
         <v>5</v>
@@ -1263,11 +1274,11 @@
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>34</v>
       </c>
@@ -1286,7 +1297,7 @@
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>37</v>
       </c>
@@ -1298,7 +1309,7 @@
       </c>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>40</v>
       </c>
@@ -1321,7 +1332,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -1330,7 +1341,7 @@
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
     </row>
-    <row r="42" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>21</v>
       </c>
@@ -1343,7 +1354,7 @@
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="1:10" s="2" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
         <v>22</v>
       </c>
@@ -1357,14 +1368,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="2" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="12"/>
       <c r="C44" s="13"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>23</v>
       </c>
@@ -1383,15 +1394,14 @@
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
     </row>
-    <row r="46" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B46" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C46" s="5"/>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="48" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B48" s="5" t="s">
         <v>25</v>
       </c>
@@ -1400,7 +1410,7 @@
       </c>
       <c r="D48" s="5"/>
     </row>
-    <row r="49" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B49" s="5" t="s">
         <v>25</v>
       </c>
@@ -1417,7 +1427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1425,7 +1435,7 @@
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
     </row>
-    <row r="51" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="18" t="s">
         <v>23</v>
       </c>
@@ -1443,13 +1453,12 @@
       </c>
       <c r="F51" s="5"/>
     </row>
-    <row r="52" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B52" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="54" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
       <c r="B54" s="19" t="s">
         <v>25</v>
@@ -1463,43 +1472,72 @@
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
     </row>
-    <row r="55" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
-      <c r="B55" s="19" t="s">
+      <c r="B55" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="5"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="5"/>
+      <c r="B57" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C57" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="19" t="s">
+      <c r="D57" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E55" s="10" t="s">
+      <c r="E57" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="F57" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A57" s="2" t="s">
+      <c r="G57" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A58" s="2" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B58" s="40"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A59" s="2" t="s">
+      <c r="B60" s="40"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A60" s="2" t="s">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
         <v>65</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC155457-31DF-4AD4-A8C4-7213922B8515}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BCB54337-3AD3-498D-80BB-4A506E8B4024}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="23304" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A47:I69"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="72">
   <si>
     <t>int</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -295,6 +296,18 @@
   </si>
   <si>
     <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -851,20 +864,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="7.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.8984375" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -885,7 +898,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -894,7 +907,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="25" t="s">
         <v>4</v>
       </c>
@@ -917,7 +930,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -926,15 +939,15 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="28">
         <v>3</v>
       </c>
@@ -942,7 +955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="38">
         <v>5</v>
       </c>
@@ -950,7 +963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="28.2" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
@@ -958,7 +971,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="25" t="s">
         <v>7</v>
       </c>
@@ -975,7 +988,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="28">
         <v>3</v>
       </c>
@@ -991,7 +1004,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1000,7 +1013,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>46</v>
       </c>
@@ -1015,7 +1028,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
@@ -1030,7 +1043,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1039,7 +1052,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
         <v>10</v>
       </c>
@@ -1054,7 +1067,7 @@
       </c>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="7"/>
       <c r="B17" s="5" t="s">
         <v>6</v>
@@ -1067,16 +1080,16 @@
       </c>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
         <v>10</v>
       </c>
@@ -1091,7 +1104,7 @@
       </c>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="7"/>
       <c r="B22" s="5" t="s">
         <v>6</v>
@@ -1104,14 +1117,14 @@
       </c>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
         <v>10</v>
       </c>
@@ -1122,7 +1135,7 @@
       <c r="D24" s="5"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="8"/>
       <c r="B25" s="5" t="s">
         <v>7</v>
@@ -1137,7 +1150,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1146,7 +1159,7 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
         <v>10</v>
       </c>
@@ -1161,7 +1174,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
       <c r="B28" s="5" t="s">
         <v>4</v>
@@ -1176,7 +1189,7 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="9"/>
       <c r="B29" s="5" t="s">
         <v>4</v>
@@ -1191,7 +1204,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1200,7 +1213,7 @@
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="10" t="s">
         <v>15</v>
       </c>
@@ -1212,7 +1225,7 @@
       <c r="E31" s="5"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="8"/>
       <c r="B32" s="5" t="s">
         <v>5</v>
@@ -1225,13 +1238,13 @@
       </c>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="10" t="s">
         <v>15</v>
       </c>
@@ -1245,7 +1258,7 @@
       <c r="E34" s="5"/>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="8"/>
       <c r="B35" s="5" t="s">
         <v>5</v>
@@ -1259,7 +1272,7 @@
       <c r="E35" s="5"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="9"/>
       <c r="B36" s="5" t="s">
         <v>5</v>
@@ -1274,11 +1287,11 @@
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="10" t="s">
         <v>34</v>
       </c>
@@ -1297,7 +1310,7 @@
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="10" t="s">
         <v>37</v>
       </c>
@@ -1309,7 +1322,7 @@
       </c>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="10" t="s">
         <v>40</v>
       </c>
@@ -1332,7 +1345,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -1341,7 +1354,7 @@
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="10" t="s">
         <v>21</v>
       </c>
@@ -1354,7 +1367,7 @@
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43" s="10" t="s">
         <v>22</v>
       </c>
@@ -1368,14 +1381,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="1"/>
       <c r="B44" s="12"/>
       <c r="C44" s="13"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="10" t="s">
         <v>23</v>
       </c>
@@ -1394,14 +1407,14 @@
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B46" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C46" s="5"/>
       <c r="G46" s="5"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B48" s="5" t="s">
         <v>25</v>
       </c>
@@ -1410,7 +1423,7 @@
       </c>
       <c r="D48" s="5"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B49" s="5" t="s">
         <v>25</v>
       </c>
@@ -1427,7 +1440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A50" s="10"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1435,7 +1448,7 @@
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A51" s="18" t="s">
         <v>23</v>
       </c>
@@ -1453,12 +1466,12 @@
       </c>
       <c r="F51" s="5"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B52" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A54" s="5"/>
       <c r="B54" s="19" t="s">
         <v>25</v>
@@ -1472,7 +1485,7 @@
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A55" s="5"/>
       <c r="B55" s="6" t="s">
         <v>10</v>
@@ -1480,67 +1493,120 @@
       <c r="C55" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D55" s="5"/>
+      <c r="D55" s="16" t="s">
+        <v>69</v>
+      </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A56" s="5"/>
       <c r="B56" s="8"/>
       <c r="C56" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D56" s="5" t="s">
-        <v>68</v>
+      <c r="D56" s="17" t="s">
+        <v>71</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="5"/>
-      <c r="B57" s="19" t="s">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B57" s="16"/>
+      <c r="C57" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B58" s="16"/>
+      <c r="C58" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.4"/>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B60" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B61" s="8"/>
+      <c r="C61" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B62" s="16"/>
+      <c r="C62" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.4"/>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A64" s="5"/>
+      <c r="B64" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C64" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D57" s="19" t="s">
+      <c r="D64" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E57" s="10" t="s">
+      <c r="E64" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="F64" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="G64" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="H64" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.4"/>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A66" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A67" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="40"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
+      <c r="B67" s="40"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A68" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A69" s="2" t="s">
         <v>65</v>
       </c>
     </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BCB54337-3AD3-498D-80BB-4A506E8B4024}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BD561D0B-566B-44A0-A6C6-E3FE30C2834A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="23304" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="73">
   <si>
     <t>int</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -309,6 +309,10 @@
   <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e[0][1]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -866,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1030,7 +1034,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>9</v>

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BD561D0B-566B-44A0-A6C6-E3FE30C2834A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{05C12C14-73EA-4EEA-B099-8E389769A4C2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="23304" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -247,10 +247,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>a+1+2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>'a'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -312,6 +308,10 @@
   </si>
   <si>
     <t>e[0][1]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -868,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -986,7 +986,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -997,13 +997,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="28" t="s">
         <v>52</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -1025,7 +1025,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -1034,7 +1034,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>9</v>
@@ -1346,7 +1346,7 @@
         <v>45</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
@@ -1498,7 +1498,7 @@
         <v>52</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
@@ -1510,7 +1510,7 @@
         <v>27</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
@@ -1521,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.4">
@@ -1530,7 +1530,7 @@
         <v>27</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.4"/>
@@ -1542,7 +1542,7 @@
         <v>52</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.4">
@@ -1551,7 +1551,7 @@
         <v>27</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.4">
@@ -1560,57 +1560,62 @@
         <v>27</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.4"/>
     <row r="64" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A64" s="5"/>
-      <c r="B64" s="19" t="s">
+      <c r="B64" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B65" s="8"/>
+      <c r="C65" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.4"/>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A67" s="5"/>
+      <c r="B67" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C64" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G64" s="2" t="s">
+      <c r="D67" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H64" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.4"/>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A66" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A67" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B67" s="40"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A68" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.4"/>
     <row r="69" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.4"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A70" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B70" s="40"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A71" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A72" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
